--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H2">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I2">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J2">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>308.9141339572874</v>
+        <v>279.9511493271604</v>
       </c>
       <c r="R2">
-        <v>2780.227205615587</v>
+        <v>2519.560343944444</v>
       </c>
       <c r="S2">
-        <v>0.01894034246582383</v>
+        <v>0.01735494599329099</v>
       </c>
       <c r="T2">
-        <v>0.01894034246582383</v>
+        <v>0.017354945993291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H3">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I3">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J3">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
-        <v>1828.828567828743</v>
+        <v>1789.289930230284</v>
       </c>
       <c r="R3">
-        <v>16459.45711045869</v>
+        <v>16103.60937207256</v>
       </c>
       <c r="S3">
-        <v>0.1121303157684196</v>
+        <v>0.110923031322141</v>
       </c>
       <c r="T3">
-        <v>0.1121303157684196</v>
+        <v>0.1109230313221411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H4">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I4">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J4">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>2203.433800212769</v>
+        <v>2155.796327772014</v>
       </c>
       <c r="R4">
-        <v>19830.90420191492</v>
+        <v>19402.16694994812</v>
       </c>
       <c r="S4">
-        <v>0.1350983531966585</v>
+        <v>0.133643776533653</v>
       </c>
       <c r="T4">
-        <v>0.1350983531966585</v>
+        <v>0.1336437765336531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J5">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>740.1575651114664</v>
+        <v>685.5844161964336</v>
       </c>
       <c r="R5">
-        <v>6661.418086003197</v>
+        <v>6170.259745767902</v>
       </c>
       <c r="S5">
-        <v>0.04538101763844776</v>
+        <v>0.04250127404558823</v>
       </c>
       <c r="T5">
-        <v>0.04538101763844773</v>
+        <v>0.04250127404558824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J6">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
         <v>4381.869105275622</v>
@@ -818,10 +818,10 @@
         <v>39436.8219474806</v>
       </c>
       <c r="S6">
-        <v>0.2686639825480069</v>
+        <v>0.2716441845461314</v>
       </c>
       <c r="T6">
-        <v>0.2686639825480069</v>
+        <v>0.2716441845461314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J7">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N7">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q7">
-        <v>5279.42239339326</v>
+        <v>5279.422393393262</v>
       </c>
       <c r="R7">
-        <v>47514.80154053934</v>
+        <v>47514.80154053935</v>
       </c>
       <c r="S7">
-        <v>0.3236953481915901</v>
+        <v>0.3272859951935261</v>
       </c>
       <c r="T7">
-        <v>0.32369534819159</v>
+        <v>0.3272859951935261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J8">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N8">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O8">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P8">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q8">
-        <v>111.5222119075516</v>
+        <v>103.2994785806983</v>
       </c>
       <c r="R8">
-        <v>1003.699907167965</v>
+        <v>929.695307226285</v>
       </c>
       <c r="S8">
-        <v>0.006837721728741816</v>
+        <v>0.006403820367274373</v>
       </c>
       <c r="T8">
-        <v>0.006837721728741815</v>
+        <v>0.006403820367274375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J9">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>46.509849</v>
       </c>
       <c r="O9">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P9">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q9">
         <v>660.232034291385</v>
@@ -1004,10 +1004,10 @@
         <v>5942.088308622465</v>
       </c>
       <c r="S9">
-        <v>0.04048057198352537</v>
+        <v>0.04092960977551511</v>
       </c>
       <c r="T9">
-        <v>0.04048057198352537</v>
+        <v>0.04092960977551512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J10">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N10">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O10">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P10">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q10">
-        <v>795.4696278984982</v>
+        <v>795.4696278984984</v>
       </c>
       <c r="R10">
-        <v>7159.226651086484</v>
+        <v>7159.226651086486</v>
       </c>
       <c r="S10">
-        <v>0.04877234647878623</v>
+        <v>0.04931336222287963</v>
       </c>
       <c r="T10">
-        <v>0.04877234647878623</v>
+        <v>0.04931336222287964</v>
       </c>
     </row>
   </sheetData>
